--- a/Meetings/Add Main Event Registration Transaction/Main.rvl.xlsx
+++ b/Meetings/Add Main Event Registration Transaction/Main.rvl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="218">
   <si>
     <t>Flow</t>
   </si>
@@ -640,6 +640,36 @@
   </si>
   <si>
     <t>getrowstartend</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\MeetingData.xlsx</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test adds a new Sales Non-Inventory transaction to an invoice, using the data in the ProductSalesData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Value for g_testname must be defined to determine row in the spreadsheet for values and objects.</t>
+  </si>
+  <si>
+    <t>*****Test must already be in an invoice with batch selected.</t>
+  </si>
+  <si>
+    <t>***Test adds a new main Meeting Registration identified in the MeetingData spreadsheet.</t>
+  </si>
+  <si>
+    <t>Loop through spreadsheet to find row with match on Test Name.</t>
+  </si>
+  <si>
+    <t>Test Name:</t>
   </si>
 </sst>
 </file>
@@ -660,7 +690,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4754">
+  <borders count="4765">
     <border>
       <left/>
       <right/>
@@ -5421,11 +5451,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4754">
+  <cellXfs count="4765">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -10180,6 +10221,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4751" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4752" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4753" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4754" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4755" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4756" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4757" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4758" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4759" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4760" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4761" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4762" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4763" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4764" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10189,7 +10241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H136"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -10335,7 +10387,7 @@
         <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
@@ -10444,7 +10496,7 @@
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -10534,28 +10586,30 @@
       <c r="A27" s="4753"/>
     </row>
     <row r="28">
-      <c r="A28" s="2971"/>
+      <c r="A28" s="4760" t="s">
+        <v>7</v>
+      </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2970" t="s">
+      <c r="A29" s="4759" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -10578,7 +10632,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2969"/>
+      <c r="A30" s="4758"/>
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -10599,393 +10653,424 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2968"/>
+      <c r="A31" s="4757"/>
     </row>
     <row r="32">
-      <c r="A32" s="2967" t="s">
+      <c r="A32" s="4756"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4755"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4754"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2971"/>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2968"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2967" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2966" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2965" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2964" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2963"/>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2962"/>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="38">
-      <c r="A38" s="2961"/>
+      <c r="A38" s="4761"/>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4763"/>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4762"/>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2966" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
         <v>134</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="2965" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2964" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2963"/>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2962"/>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2961"/>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2960"/>
-      <c r="B39" t="s">
+    <row r="47">
+      <c r="A47" s="2960"/>
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E47" t="s">
         <v>137</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F47" t="s">
         <v>38</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2959" t="s">
+    <row r="48">
+      <c r="A48" s="2959" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2958" t="s">
+    <row r="49">
+      <c r="A49" s="2958" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2957"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2956" t="s">
+    <row r="50">
+      <c r="A50" s="2957"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2956" t="s">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2955" t="s">
+    <row r="52">
+      <c r="A52" s="2955" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B52" t="s">
         <v>17</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2954" t="s">
+    <row r="53">
+      <c r="A53" s="2954" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2953" t="s">
+    <row r="54">
+      <c r="A54" s="2953" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E54" t="s">
         <v>54</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F54" t="s">
         <v>132</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2952"/>
-      <c r="B47" t="s">
+    <row r="55">
+      <c r="A55" s="2952"/>
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2951"/>
-      <c r="B48" t="s">
+    <row r="56">
+      <c r="A56" s="2951"/>
+      <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E56" t="s">
         <v>58</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F56" t="s">
         <v>38</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2950"/>
-      <c r="B49" t="s">
+    <row r="57">
+      <c r="A57" s="2950"/>
+      <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C57" t="s">
         <v>132</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2949"/>
-      <c r="B50" t="s">
+    <row r="58">
+      <c r="A58" s="2949"/>
+      <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E58" t="s">
         <v>138</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F58" t="s">
         <v>38</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2948" t="s">
+    <row r="59">
+      <c r="A59" s="2948" t="s">
         <v>32</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2947" t="s">
+    <row r="60">
+      <c r="A60" s="2947" t="s">
         <v>32</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B60" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2946"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2945"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2944"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2943"/>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" t="s">
-        <v>64</v>
-      </c>
-      <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2942"/>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2941"/>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2940"/>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2939"/>
-    </row>
     <row r="61">
-      <c r="A61" s="2938"/>
+      <c r="A61" s="2946"/>
     </row>
     <row r="62">
-      <c r="A62" s="2937" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" t="s">
-        <v>139</v>
-      </c>
+      <c r="A62" s="2945"/>
     </row>
     <row r="63">
-      <c r="A63" s="2936"/>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
-        <v>140</v>
-      </c>
+      <c r="A63" s="2944"/>
     </row>
     <row r="64">
-      <c r="A64" s="2935"/>
+      <c r="A64" s="2943"/>
       <c r="B64" t="s">
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2934"/>
+      <c r="A65" s="2942"/>
       <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2933"/>
+      <c r="A66" s="2941"/>
       <c r="B66" t="s">
         <v>3</v>
       </c>
@@ -11002,11 +11087,11 @@
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2932"/>
+      <c r="A67" s="2940"/>
       <c r="B67" t="s">
         <v>11</v>
       </c>
@@ -11017,514 +11102,483 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2931"/>
-      <c r="B68" t="s">
+      <c r="A68" s="2939"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2938"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2937" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2936"/>
+      <c r="B71" t="s">
         <v>3</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>62</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D71" t="s">
         <v>63</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E71" t="s">
         <v>64</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F71" t="s">
         <v>13</v>
       </c>
-      <c r="G68" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2930"/>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2929"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2928" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" t="s">
-        <v>143</v>
+      <c r="G71" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2927"/>
+      <c r="A72" s="2935"/>
       <c r="B72" t="s">
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2926"/>
+      <c r="A73" s="2934"/>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" t="s">
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2925"/>
+      <c r="A74" s="2933"/>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2924" t="s">
-        <v>34</v>
-      </c>
+      <c r="A75" s="2932"/>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2923"/>
+      <c r="A76" s="2931"/>
       <c r="B76" t="s">
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="F76" t="s">
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2922"/>
+      <c r="A77" s="2930"/>
       <c r="B77" t="s">
         <v>11</v>
       </c>
       <c r="E77" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2929"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2928" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2927"/>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2926"/>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
         <v>23</v>
-      </c>
-      <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2921"/>
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2920"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2919" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2918"/>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" t="s">
-        <v>64</v>
       </c>
       <c r="F81" t="s">
         <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2917"/>
+      <c r="A82" s="2925"/>
       <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2916"/>
+      <c r="A83" s="2924" t="s">
+        <v>34</v>
+      </c>
       <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E83" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2915"/>
+      <c r="A84" s="2923"/>
       <c r="B84" t="s">
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>75</v>
+        <v>144</v>
+      </c>
+      <c r="E84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2914"/>
+      <c r="A85" s="2922"/>
       <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2921"/>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2920"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2919" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2918"/>
+      <c r="B89" t="s">
         <v>3</v>
       </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>39</v>
-      </c>
-      <c r="E85" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85" t="s">
-        <v>41</v>
-      </c>
-      <c r="G85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2913"/>
-      <c r="B86" t="s">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" t="s">
-        <v>81</v>
-      </c>
-      <c r="E86" t="s">
-        <v>82</v>
-      </c>
-      <c r="F86" t="s">
-        <v>41</v>
-      </c>
-      <c r="G86" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2912"/>
-      <c r="B87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" t="s">
-        <v>134</v>
-      </c>
-      <c r="G87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2911"/>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" t="s">
-        <v>81</v>
-      </c>
-      <c r="E88" t="s">
-        <v>82</v>
-      </c>
-      <c r="F88" t="s">
-        <v>41</v>
-      </c>
-      <c r="G88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2910"/>
-      <c r="B89" t="s">
-        <v>11</v>
+      <c r="C89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" t="s">
+        <v>63</v>
       </c>
       <c r="E89" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2909"/>
+      <c r="A90" s="2917"/>
       <c r="B90" t="s">
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90" t="s">
-        <v>79</v>
-      </c>
-      <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2908"/>
+      <c r="A91" s="2916"/>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G91" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="2907" t="s">
-        <v>34</v>
-      </c>
+      <c r="A92" s="2915"/>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2906"/>
+      <c r="A93" s="2914"/>
       <c r="B93" t="s">
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2905"/>
+      <c r="A94" s="2913"/>
       <c r="B94" t="s">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2904"/>
+      <c r="A95" s="2912"/>
       <c r="B95" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F95" t="s">
         <v>134</v>
       </c>
       <c r="G95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2903"/>
+      <c r="A96" s="2911"/>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E96" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2902"/>
+      <c r="A97" s="2910"/>
       <c r="B97" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="G97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2901"/>
+      <c r="A98" s="2909"/>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="2900"/>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" t="s">
-        <v>63</v>
-      </c>
-      <c r="E99" t="s">
-        <v>64</v>
-      </c>
-      <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s">
-        <v>148</v>
-      </c>
+      <c r="A99" s="2908"/>
     </row>
     <row r="100">
-      <c r="A100" s="2899"/>
+      <c r="A100" s="2907" t="s">
+        <v>34</v>
+      </c>
       <c r="B100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
-        <v>64</v>
-      </c>
-      <c r="F100" t="s">
-        <v>38</v>
-      </c>
-      <c r="G100" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2898"/>
+      <c r="A101" s="2906"/>
       <c r="B101" t="s">
         <v>3</v>
       </c>
@@ -11541,330 +11595,474 @@
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2897"/>
+      <c r="A102" s="2905"/>
       <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2904"/>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" t="s">
+        <v>134</v>
+      </c>
+      <c r="G103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2903"/>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2902"/>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2901"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2900"/>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>62</v>
+      </c>
+      <c r="D107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" t="s">
+        <v>64</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2899"/>
+      <c r="B108" t="s">
         <v>11</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E108" t="s">
         <v>64</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F108" t="s">
         <v>38</v>
       </c>
-      <c r="G102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2896"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2895" t="s">
-        <v>51</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
-        <v>153</v>
-      </c>
-      <c r="E104" t="s">
-        <v>154</v>
-      </c>
-      <c r="F104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="G108" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2894"/>
-      <c r="B105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" t="s">
-        <v>155</v>
-      </c>
-      <c r="F105" t="s">
-        <v>38</v>
-      </c>
-      <c r="G105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2893"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2892" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2891" t="s">
-        <v>34</v>
-      </c>
-      <c r="B108" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="109">
-      <c r="A109" s="2890"/>
+      <c r="A109" s="2898"/>
       <c r="B109" t="s">
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="E109" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2889"/>
+      <c r="A110" s="2897"/>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="F110" t="s">
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2888"/>
-      <c r="B111" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
-        <v>62</v>
-      </c>
-      <c r="D111" t="s">
-        <v>63</v>
-      </c>
-      <c r="E111" t="s">
-        <v>64</v>
-      </c>
-      <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s">
-        <v>160</v>
-      </c>
+      <c r="A111" s="2896"/>
     </row>
     <row r="112">
-      <c r="A112" s="2887"/>
+      <c r="A112" s="2895" t="s">
+        <v>51</v>
+      </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>153</v>
       </c>
       <c r="E112" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="F112" t="s">
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2886"/>
+      <c r="A113" s="2894"/>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>155</v>
+      </c>
+      <c r="F113" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="2885" t="s">
+      <c r="A114" s="2893"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2892" t="s">
         <v>34</v>
       </c>
-      <c r="B114" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2884"/>
       <c r="B115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
-        <v>134</v>
-      </c>
-      <c r="D115" t="s">
-        <v>157</v>
-      </c>
-      <c r="E115" t="s">
-        <v>158</v>
-      </c>
-      <c r="F115" t="s">
-        <v>38</v>
-      </c>
-      <c r="G115" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2883"/>
+      <c r="A116" s="2891" t="s">
+        <v>34</v>
+      </c>
       <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" t="s">
-        <v>162</v>
-      </c>
-      <c r="F116" t="s">
-        <v>38</v>
-      </c>
-      <c r="G116" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2882"/>
+      <c r="A117" s="2890"/>
       <c r="B117" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="E117" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2881"/>
+      <c r="A118" s="2889"/>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="F118" t="s">
         <v>38</v>
       </c>
       <c r="G118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2888"/>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>62</v>
+      </c>
+      <c r="D119" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" t="s">
+        <v>64</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2887"/>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" t="s">
+        <v>38</v>
+      </c>
+      <c r="G120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2886"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2885" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2884"/>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" t="s">
+        <v>157</v>
+      </c>
+      <c r="E123" t="s">
+        <v>158</v>
+      </c>
+      <c r="F123" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2883"/>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2880"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2879"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2878"/>
-      <c r="B121" t="s">
+      <c r="F124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2882"/>
+      <c r="B125" t="s">
         <v>3</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2881"/>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2880"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="2879"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2878"/>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
         <v>77</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D129" t="s">
         <v>164</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E129" t="s">
         <v>165</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F129" t="s">
         <v>38</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G129" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2877"/>
-      <c r="B122" t="s">
+    <row r="130">
+      <c r="A130" s="2877"/>
+      <c r="B130" t="s">
         <v>11</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E130" t="s">
         <v>166</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F130" t="s">
         <v>38</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G130" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2876"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2875" t="s">
+    <row r="131">
+      <c r="A131" s="2876"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2875" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2874"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="137"/>
-      <c r="B126" s="138" t="s">
+    <row r="133">
+      <c r="A133" s="2874"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="137"/>
+      <c r="B134" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="139" t="s">
+      <c r="C134" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="D126" s="140" t="s">
+      <c r="D134" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="E126" s="141" t="s">
+      <c r="E134" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="F126" s="142" t="s">
+      <c r="F134" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="G126" s="143" t="s">
+      <c r="G134" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="H126" s="144"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="145"/>
-      <c r="B127" s="146"/>
-      <c r="C127" s="147"/>
-      <c r="D127" s="148"/>
-      <c r="E127" s="149"/>
-      <c r="F127" s="150"/>
-      <c r="G127" s="151"/>
-      <c r="H127" s="152"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="153"/>
-      <c r="B128" s="154"/>
-      <c r="C128" s="155"/>
-      <c r="D128" s="156"/>
-      <c r="E128" s="157"/>
-      <c r="F128" s="158"/>
-      <c r="G128" s="159"/>
-      <c r="H128" s="160"/>
+      <c r="H134" s="144"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="145"/>
+      <c r="B135" s="146"/>
+      <c r="C135" s="147"/>
+      <c r="D135" s="148"/>
+      <c r="E135" s="149"/>
+      <c r="F135" s="150"/>
+      <c r="G135" s="151"/>
+      <c r="H135" s="152"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="153"/>
+      <c r="B136" s="154"/>
+      <c r="C136" s="155"/>
+      <c r="D136" s="156"/>
+      <c r="E136" s="157"/>
+      <c r="F136" s="158"/>
+      <c r="G136" s="159"/>
+      <c r="H136" s="160"/>
     </row>
   </sheetData>
 </worksheet>
